--- a/researchData/TOPSISAnalysis/PrototypeComponents_TOPSIS.xlsx
+++ b/researchData/TOPSISAnalysis/PrototypeComponents_TOPSIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Backups\Mestrado\Prepd_Ano2_Semestre1\Dissertacao\Documentos Meus Apoio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F6A79-19EB-4D63-8D87-F9C643E56130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C313A-FBC9-4709-9510-4ADF89F44FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5EF27A06-70A5-4D88-8381-923DB0171577}"/>
   </bookViews>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62A3275-6360-4A38-A854-23D5D49F45C8}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +630,7 @@
         <v>0.81</v>
       </c>
       <c r="C5" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
         <v>0.52</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>0.81</v>
       </c>
       <c r="C29" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C30" s="2">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>0.52</v>
       </c>
       <c r="C31" s="2">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>0.64000000000000012</v>
+        <v>0.72249999999999992</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>4.8399999999999999E-2</v>
+        <v>2.8900000000000006E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>2.8900000000000006E-2</v>
+        <v>1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
       </c>
       <c r="C40" s="7">
         <f t="shared" ref="C40" si="1">SUM(C37:C39)</f>
-        <v>0.71730000000000016</v>
+        <v>0.76139999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
       </c>
       <c r="C41" s="7">
         <f t="shared" ref="C41" si="2">SQRT(C40)</f>
-        <v>0.84693565280958638</v>
+        <v>0.87258237433493924</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
       </c>
       <c r="C46" s="2">
         <f>C29/$C$41</f>
-        <v>0.9445817959677526</v>
+        <v>0.97412006591108258</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
       </c>
       <c r="C47" s="2">
         <f>C30/$C$41</f>
-        <v>0.25975999389113197</v>
+        <v>0.19482401318221654</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
       </c>
       <c r="C48" s="2">
         <f>C31/$C$41</f>
-        <v>0.20072363164314741</v>
+        <v>0.1146023606954215</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
       </c>
       <c r="C54" s="2">
         <f>C46*$C$27</f>
-        <v>0.4722908979838763</v>
+        <v>0.48706003295554129</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
       </c>
       <c r="C55" s="2">
         <f>C47*$C$27</f>
-        <v>0.12987999694556598</v>
+        <v>9.7412006591108269E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
       </c>
       <c r="C56" s="2">
         <f>C48*$C$27</f>
-        <v>0.1003618158215737</v>
+        <v>5.7301180347710749E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,12 +981,12 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <f>B54</f>
+        <f t="shared" ref="B61:C63" si="3">B54</f>
         <v>0.36532473822788036</v>
       </c>
       <c r="C61" s="2">
-        <f>C54</f>
-        <v>0.4722908979838763</v>
+        <f t="shared" si="3"/>
+        <v>0.48706003295554129</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,12 +994,12 @@
         <v>2</v>
       </c>
       <c r="B62" s="2">
-        <f>B55</f>
+        <f t="shared" si="3"/>
         <v>0.2480600074386842</v>
       </c>
       <c r="C62" s="2">
-        <f>C55</f>
-        <v>0.12987999694556598</v>
+        <f t="shared" si="3"/>
+        <v>9.7412006591108269E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1007,12 +1007,12 @@
         <v>3</v>
       </c>
       <c r="B63" s="2">
-        <f>B56</f>
+        <f t="shared" si="3"/>
         <v>0.23452946157839233</v>
       </c>
       <c r="C63" s="2">
-        <f>C56</f>
-        <v>0.1003618158215737</v>
+        <f t="shared" si="3"/>
+        <v>5.7301180347710749E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C64" s="7">
         <f>MAX(C61:C63)</f>
-        <v>0.4722908979838763</v>
+        <v>0.48706003295554129</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1049,12 +1049,12 @@
         <v>1</v>
       </c>
       <c r="B69" s="2">
-        <f>B54</f>
+        <f t="shared" ref="B69:C71" si="4">B54</f>
         <v>0.36532473822788036</v>
       </c>
       <c r="C69" s="2">
-        <f>C54</f>
-        <v>0.4722908979838763</v>
+        <f t="shared" si="4"/>
+        <v>0.48706003295554129</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,12 +1062,12 @@
         <v>2</v>
       </c>
       <c r="B70" s="2">
-        <f>B55</f>
+        <f t="shared" si="4"/>
         <v>0.2480600074386842</v>
       </c>
       <c r="C70" s="2">
-        <f>C55</f>
-        <v>0.12987999694556598</v>
+        <f t="shared" si="4"/>
+        <v>9.7412006591108269E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,12 +1075,12 @@
         <v>3</v>
       </c>
       <c r="B71" s="2">
-        <f>B56</f>
+        <f t="shared" si="4"/>
         <v>0.23452946157839233</v>
       </c>
       <c r="C71" s="2">
-        <f>C56</f>
-        <v>0.1003618158215737</v>
+        <f t="shared" si="4"/>
+        <v>5.7301180347710749E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C72" s="7">
         <f>MIN(C69:C71)</f>
-        <v>0.1003618158215737</v>
+        <v>5.7301180347710749E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C82" s="2">
         <f>(C55-$C$64)^2</f>
-        <v>0.11724522514986752</v>
+        <v>0.1518255844496979</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C83" s="2">
         <f>(C56-$C$64)^2</f>
-        <v>0.13833124215809284</v>
+        <v>0.184692671394799</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" ref="B88:B89" si="3">SUM(B81:D81)</f>
+        <f t="shared" ref="B88:B89" si="5">SUM(B81:D81)</f>
         <v>0</v>
       </c>
       <c r="C88" s="2">
@@ -1187,12 +1187,12 @@
         <v>2</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="3"/>
-        <v>0.13099624223693015</v>
+        <f t="shared" si="5"/>
+        <v>0.16557660153676054</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" ref="C89:C90" si="4">SQRT(B89)</f>
-        <v>0.36193403022778908</v>
+        <f t="shared" ref="C89:C90" si="6">SQRT(B89)</f>
+        <v>0.4069110486786523</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,11 +1201,11 @@
       </c>
       <c r="B90" s="2">
         <f>SUM(B83:D83)</f>
-        <v>0.15543864655190895</v>
+        <v>0.20180007578861511</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" si="4"/>
-        <v>0.39425708180311608</v>
+        <f t="shared" si="6"/>
+        <v>0.44922163325981429</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C98" s="2">
         <f>(C54-$C$72)^2</f>
-        <v>0.13833124215809284</v>
+        <v>0.184692671394799</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C99" s="2">
         <f>(C55-$C$72)^2</f>
-        <v>8.7132301686881409E-4</v>
+        <v>1.6088783819280272E-3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="B105" s="2">
         <f>SUM(B98:D98)</f>
-        <v>0.15543864655190895</v>
+        <v>0.20180007578861511</v>
       </c>
       <c r="C105" s="2">
         <f>SQRT(B105)</f>
-        <v>0.39425708180311608</v>
+        <v>0.44922163325981429</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1299,12 +1299,12 @@
         <v>2</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" ref="B106:B107" si="5">SUM(B99:D99)</f>
-        <v>1.0543986881462757E-3</v>
+        <f t="shared" ref="B106:B107" si="7">SUM(B99:D99)</f>
+        <v>1.7919540532054887E-3</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" ref="C106:C107" si="6">SQRT(B106)</f>
-        <v>3.2471505788094823E-2</v>
+        <f t="shared" ref="C106:C107" si="8">SQRT(B106)</f>
+        <v>4.233147827805555E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,11 +1312,11 @@
         <v>3</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B114" s="2">
         <f>C106/(C89+C106)</f>
-        <v>8.2330248495262243E-2</v>
+        <v>9.4228564167378806E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
